--- a/U01_langloc_audio_vFeb2021/prepstim/all_stimuli_Feb2021_re-spelled.xlsx
+++ b/U01_langloc_audio_vFeb2021/prepstim/all_stimuli_Feb2021_re-spelled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsmall/Dropbox (MIT)/0_projects/eCog/stimulus_scripts/MIT_U01_experiments/U01_langloc_audio_vFeb2021/prepstim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eghbalhosseiniasl1/MyCodes/MIT_U01_experiments/U01_langloc_audio_vFeb2021/prepstim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BCF921-E858-DC4E-BEB1-B631261D55ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B779C3EC-BE16-9346-AB99-020084CD98C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="5000" windowWidth="27380" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>The wind was very cold, and Peter was happy he dressed warmly</t>
   </si>
   <si>
-    <t>From a distance, the house looked really tiny, almost like a toy</t>
-  </si>
-  <si>
     <t>The baby kept crying, and the nanny didn't know what was wrong</t>
   </si>
   <si>
@@ -763,6 +760,9 @@
   </si>
   <si>
     <t>060_Nonsense_denoised_48000.wav</t>
+  </si>
+  <si>
+    <t>From a distance, the house looked very tiny, almost like a toy</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1743,16 +1743,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="1"/>
@@ -1764,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
@@ -1781,13 +1781,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1798,13 +1798,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
@@ -1815,13 +1815,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1832,13 +1832,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
@@ -1849,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
@@ -1866,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
@@ -1883,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
@@ -1900,13 +1900,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
@@ -1917,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
@@ -1934,13 +1934,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
@@ -1951,13 +1951,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
@@ -1968,13 +1968,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
@@ -1985,13 +1985,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
@@ -2002,13 +2002,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
@@ -2019,13 +2019,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
@@ -2036,13 +2036,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
@@ -2053,13 +2053,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
@@ -2070,13 +2070,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
@@ -2087,13 +2087,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
@@ -2104,13 +2104,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
@@ -2121,13 +2121,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
@@ -2138,13 +2138,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
@@ -2155,13 +2155,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
@@ -2172,13 +2172,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
@@ -2189,13 +2189,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
@@ -2206,13 +2206,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
@@ -2223,13 +2223,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
@@ -2240,13 +2240,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
@@ -2257,13 +2257,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
@@ -2274,13 +2274,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
@@ -2291,13 +2291,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
@@ -2308,13 +2308,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
@@ -2325,13 +2325,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
@@ -2342,13 +2342,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
@@ -2359,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
@@ -2376,13 +2376,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
@@ -2393,13 +2393,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
@@ -2410,13 +2410,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
@@ -2427,13 +2427,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
@@ -2444,13 +2444,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
@@ -2461,13 +2461,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
@@ -2478,13 +2478,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
@@ -2495,13 +2495,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
@@ -2512,13 +2512,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
@@ -2529,13 +2529,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
@@ -2546,13 +2546,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
@@ -2563,13 +2563,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
@@ -2580,13 +2580,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3"/>
@@ -2597,13 +2597,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="3"/>
@@ -2614,13 +2614,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="3"/>
@@ -2631,13 +2631,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="3"/>
@@ -2648,13 +2648,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="3"/>
@@ -2665,13 +2665,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
@@ -2682,13 +2682,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="3"/>
@@ -2699,13 +2699,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="3"/>
@@ -2716,13 +2716,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
@@ -2733,13 +2733,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="3"/>
@@ -2750,13 +2750,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
@@ -2767,13 +2767,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="3"/>
@@ -2784,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
@@ -2801,13 +2801,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="4"/>
       <c r="I63" s="8"/>
@@ -2817,13 +2817,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E64" s="4"/>
       <c r="I64" s="8"/>
@@ -2833,13 +2833,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E65" s="4"/>
       <c r="I65" s="8"/>
@@ -2849,13 +2849,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E66" s="4"/>
       <c r="I66" s="8"/>
@@ -2865,13 +2865,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="4"/>
       <c r="I67" s="8"/>
@@ -2881,13 +2881,13 @@
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" s="4"/>
       <c r="I68" s="8"/>
@@ -2897,13 +2897,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="4"/>
       <c r="I69" s="8"/>
@@ -2913,13 +2913,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70" s="4"/>
       <c r="I70" s="8"/>
@@ -2929,13 +2929,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="4"/>
       <c r="I71" s="8"/>
@@ -2945,13 +2945,13 @@
         <v>11</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" s="4"/>
       <c r="I72" s="8"/>
@@ -2961,13 +2961,13 @@
         <v>12</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" s="4"/>
       <c r="I73" s="8"/>
@@ -2977,13 +2977,13 @@
         <v>13</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E74" s="4"/>
       <c r="I74" s="8"/>
@@ -2993,13 +2993,13 @@
         <v>14</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" s="4"/>
       <c r="I75" s="8"/>
@@ -3009,13 +3009,13 @@
         <v>15</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E76" s="4"/>
       <c r="I76" s="8"/>
@@ -3025,13 +3025,13 @@
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" s="4"/>
       <c r="I77" s="8"/>
@@ -3041,13 +3041,13 @@
         <v>17</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E78" s="4"/>
       <c r="I78" s="8"/>
@@ -3057,13 +3057,13 @@
         <v>18</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="4"/>
       <c r="I79" s="8"/>
@@ -3073,13 +3073,13 @@
         <v>19</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E80" s="4"/>
       <c r="I80" s="8"/>
@@ -3089,13 +3089,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E81" s="4"/>
       <c r="I81" s="8"/>
@@ -3105,13 +3105,13 @@
         <v>21</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="4"/>
       <c r="I82" s="8"/>
@@ -3121,13 +3121,13 @@
         <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E83" s="4"/>
       <c r="I83" s="8"/>
@@ -3137,13 +3137,13 @@
         <v>23</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E84" s="4"/>
       <c r="I84" s="8"/>
@@ -3153,13 +3153,13 @@
         <v>24</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E85" s="4"/>
       <c r="I85" s="8"/>
@@ -3169,13 +3169,13 @@
         <v>25</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E86" s="4"/>
       <c r="I86" s="8"/>
@@ -3185,13 +3185,13 @@
         <v>26</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="4"/>
       <c r="I87" s="8"/>
@@ -3201,13 +3201,13 @@
         <v>27</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E88" s="4"/>
       <c r="I88" s="8"/>
@@ -3217,13 +3217,13 @@
         <v>28</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E89" s="4"/>
       <c r="I89" s="8"/>
@@ -3233,13 +3233,13 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E90" s="4"/>
       <c r="I90" s="8"/>
@@ -3249,13 +3249,13 @@
         <v>30</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E91" s="4"/>
       <c r="I91" s="8"/>
@@ -3265,13 +3265,13 @@
         <v>31</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E92" s="4"/>
       <c r="I92" s="8"/>
@@ -3281,13 +3281,13 @@
         <v>32</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E93" s="4"/>
       <c r="I93" s="8"/>
@@ -3297,13 +3297,13 @@
         <v>33</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E94" s="4"/>
       <c r="I94" s="8"/>
@@ -3313,13 +3313,13 @@
         <v>34</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" s="4"/>
       <c r="I95" s="8"/>
@@ -3329,13 +3329,13 @@
         <v>35</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E96" s="4"/>
       <c r="I96" s="8"/>
@@ -3345,13 +3345,13 @@
         <v>36</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E97" s="4"/>
       <c r="I97" s="8"/>
@@ -3361,13 +3361,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E98" s="4"/>
       <c r="I98" s="8"/>
@@ -3377,13 +3377,13 @@
         <v>38</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E99" s="4"/>
       <c r="I99" s="8"/>
@@ -3393,13 +3393,13 @@
         <v>39</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E100" s="4"/>
       <c r="I100" s="8"/>
@@ -3409,13 +3409,13 @@
         <v>40</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E101" s="4"/>
       <c r="I101" s="8"/>
@@ -3425,13 +3425,13 @@
         <v>41</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E102" s="4"/>
       <c r="I102" s="8"/>
@@ -3441,13 +3441,13 @@
         <v>42</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E103" s="4"/>
       <c r="I103" s="8"/>
@@ -3457,13 +3457,13 @@
         <v>43</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E104" s="4"/>
       <c r="I104" s="8"/>
@@ -3473,13 +3473,13 @@
         <v>44</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E105" s="4"/>
       <c r="I105" s="8"/>
@@ -3489,13 +3489,13 @@
         <v>45</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E106" s="4"/>
       <c r="I106" s="8"/>
@@ -3505,13 +3505,13 @@
         <v>46</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E107" s="4"/>
       <c r="I107" s="8"/>
@@ -3521,13 +3521,13 @@
         <v>47</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E108" s="4"/>
       <c r="I108" s="8"/>
@@ -3537,13 +3537,13 @@
         <v>48</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E109" s="4"/>
       <c r="I109" s="8"/>
@@ -3553,13 +3553,13 @@
         <v>49</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E110" s="4"/>
       <c r="I110" s="8"/>
@@ -3569,13 +3569,13 @@
         <v>50</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E111" s="4"/>
       <c r="I111" s="8"/>
@@ -3585,13 +3585,13 @@
         <v>51</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E112" s="4"/>
       <c r="I112" s="8"/>
@@ -3601,13 +3601,13 @@
         <v>52</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E113" s="4"/>
       <c r="I113" s="8"/>
@@ -3617,13 +3617,13 @@
         <v>53</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E114" s="4"/>
       <c r="I114" s="8"/>
@@ -3633,13 +3633,13 @@
         <v>54</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E115" s="4"/>
       <c r="I115" s="8"/>
@@ -3649,13 +3649,13 @@
         <v>55</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E116" s="4"/>
       <c r="I116" s="8"/>
@@ -3665,13 +3665,13 @@
         <v>56</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E117" s="4"/>
       <c r="I117" s="8"/>
@@ -3681,13 +3681,13 @@
         <v>57</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E118" s="4"/>
       <c r="I118" s="8"/>
@@ -3697,13 +3697,13 @@
         <v>58</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E119" s="4"/>
       <c r="I119" s="8"/>
@@ -3713,13 +3713,13 @@
         <v>59</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E120" s="4"/>
       <c r="I120" s="8"/>
@@ -3729,13 +3729,13 @@
         <v>60</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E121" s="4"/>
       <c r="I121" s="8"/>
